--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\elec\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6B2BD-1B09-4E79-8B31-F4F71B56CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269FEBAC-025D-4CEC-BAFD-4833AD938194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12670" yWindow="360" windowWidth="12170" windowHeight="13030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="KPX" sheetId="9" r:id="rId2"/>
     <sheet name="Calculation" sheetId="11" r:id="rId3"/>
-    <sheet name="SYC-SYEGC" sheetId="4" r:id="rId4"/>
-    <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
+    <sheet name="SYC-SYEGC" sheetId="4" r:id="rId5"/>
+    <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>Source:</t>
   </si>
@@ -315,6 +316,12 @@
   </si>
   <si>
     <t>집단에너지, 신재생, 기타</t>
+  </si>
+  <si>
+    <t>→ Please update SYC by adding solid waste power plant capacities in 2020: industrial waste 100 MW, municipal 120 MW, SRF 147 MW. We missed them out due to a statistical change in the KPX system (our data source).</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -324,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +436,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -527,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -608,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -896,13 +912,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1029,12 +1045,12 @@
       <selection activeCell="E22" sqref="E22:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="25.5" customHeight="1">
@@ -1045,7 +1061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -1072,7 +1088,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>63</v>
       </c>
@@ -1129,7 +1145,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="37"/>
@@ -1174,7 +1190,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
@@ -1245,7 +1261,7 @@
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
-    <row r="6" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1357,7 @@
       <c r="AY6" s="21"/>
       <c r="AZ6" s="21"/>
     </row>
-    <row r="7" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1397,7 +1413,7 @@
       <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
     </row>
-    <row r="8" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
@@ -1453,7 +1469,7 @@
       <c r="AY8" s="21"/>
       <c r="AZ8" s="21"/>
     </row>
-    <row r="9" spans="1:52" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:52" s="11" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -3519,12 +3535,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -3816,24 +3832,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5407CE-3E5A-4820-AA73-5B62DC41510D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="87.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="42.5">
+      <c r="A1" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <f>100+120+147</f>
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="29">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4107,8 +4156,8 @@
         <v>23</v>
       </c>
       <c r="B17" s="6">
-        <f>Calculation!B18</f>
-        <v>0</v>
+        <f>Sheet1!$B$3</f>
+        <v>367</v>
       </c>
       <c r="C17" s="6">
         <f>Calculation!C18</f>
@@ -4140,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4151,11 +4200,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
